--- a/biology/Botanique/Trocdaris_verticillatum/Trocdaris_verticillatum.xlsx
+++ b/biology/Botanique/Trocdaris_verticillatum/Trocdaris_verticillatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Carum verticillé (Trocdaris verticillatum, synonyme : Carum verticillatum), est une plante de la famille des Apiacées, originaire d'Europe occidentale et rencontrée dans certains types de prairies humides.
 </t>
@@ -511,14 +523,16 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nom scientifique valide complet : Trocdaris verticillatum (L). Raf., Good Book: 50. 1840
 Noms communs : Carum verticillé, Carvi verticillé
 Étymologie :
 Carum : mot latin repris en français. Il viendrait du grec Κάρον (karon).
 Trocdaris
-verticillatum : fait référence à la morphologie des feuilles dont les segments semblent verticillés autour de la nervure centrale[1].</t>
+verticillatum : fait référence à la morphologie des feuilles dont les segments semblent verticillés autour de la nervure centrale.</t>
         </is>
       </c>
     </row>
@@ -548,11 +562,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Histoire du taxon et de la classification
-Cette espèce a été décrite par Linné dans son ouvrage Species Plantarum en 1753 dans le genre Sison[2]. Elle a par la suite été placée dans différents genres, notamment Apium, Bunium, Carum, Pimpinella, Selinum, Seseli, Sison ou Sium par divers auteurs[1] (voir liste des synonymes ci-dessous).
-Elle a été placée dans le genre Carum et désignée sous le nom de Carum verticillatum par Johann Friedrich Wilhelm Koch en 1824 dans son ouvrage Novorum Actorum Academia Caesareae Leopoldinae-Carolinae Germanicae Naturae Curiosorum[3] et repris ensuite sous cette forme par de nombreux auteurs[1].
-Synonymes[1]
-≡ Sison verticillatum L., Sp. Pl.: 253. 1753
+          <t>Histoire du taxon et de la classification</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par Linné dans son ouvrage Species Plantarum en 1753 dans le genre Sison. Elle a par la suite été placée dans différents genres, notamment Apium, Bunium, Carum, Pimpinella, Selinum, Seseli, Sison ou Sium par divers auteurs (voir liste des synonymes ci-dessous).
+Elle a été placée dans le genre Carum et désignée sous le nom de Carum verticillatum par Johann Friedrich Wilhelm Koch en 1824 dans son ouvrage Novorum Actorum Academia Caesareae Leopoldinae-Carolinae Germanicae Naturae Curiosorum et repris ensuite sous cette forme par de nombreux auteurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Trocdaris_verticillatum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trocdaris_verticillatum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie et classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes[1]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>≡ Sison verticillatum L., Sp. Pl.: 253. 1753
 ≡ Seseli verticillatum (L.) Crantz, Cl. Umbel. Emend.: 92. 1767
 ≡ Sium verticillatum (L.) Lam., Fl. Franç. 3: 460. 1767
 ≡ Carum verticillatum (L.) W. D. J. Koch in Nova Acta Phys.-Med. Acad. Caes. Leop.-Carol. Nat. Cur. 12(1): 122. 1824
@@ -563,38 +617,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Trocdaris_verticillatum</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Trocdaris_verticillatum</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Caractéristiques</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Port général et type biologique : hémicryptophyte érigé (Remarque : Flora Gallica indique : géophyte à tubercule).
-Appareil végétatif : tige dressée, peu ou pas ramifiée, feuilles oblongues, très découpées, dont les segments semblent verticillés autour de la nervure centrale, racine pivotante tubérisée.
-Appareil reproducteur : fleurs petites blanches, agencées en ombelles composées, fruits proches de ceux du Carvi (d'où le rattachement initial de l'espèce au genre Carum[1]).</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -616,13 +638,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Port général et type biologique : hémicryptophyte érigé (Remarque : Flora Gallica indique : géophyte à tubercule).
+Appareil végétatif : tige dressée, peu ou pas ramifiée, feuilles oblongues, très découpées, dont les segments semblent verticillés autour de la nervure centrale, racine pivotante tubérisée.
+Appareil reproducteur : fleurs petites blanches, agencées en ombelles composées, fruits proches de ceux du Carvi (d'où le rattachement initial de l'espèce au genre Carum).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Trocdaris_verticillatum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trocdaris_verticillatum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante originaire d'Europe occidentale.
-On la rencontre dans les bas-marais, prairies humides et landes hygrophiles acidiphiles sur substrat tourbeux[4]. En phytosociologie elle caractérise les jonçaies des prés paratourbeux acidophiles, atlantiques de l'alliance du Juncion acutiflori[5].
+On la rencontre dans les bas-marais, prairies humides et landes hygrophiles acidiphiles sur substrat tourbeux. En phytosociologie elle caractérise les jonçaies des prés paratourbeux acidophiles, atlantiques de l'alliance du Juncion acutiflori.
 </t>
         </is>
       </c>
